--- a/data/event_en.xlsx
+++ b/data/event_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8D9791-9B7A-439D-B04E-38DF8EE38EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12FA444-67BE-42EE-8EE1-1D731626771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>what</t>
   </si>
@@ -55,23 +55,26 @@
     <t>November 25 ‑ 28, 2020</t>
   </si>
   <si>
-    <t>https://www.isep.es/congreso2020/#comite</t>
-  </si>
-  <si>
-    <t>Universidad El Bosque &amp; Universidad de los Andes</t>
-  </si>
-  <si>
     <t>CIVN2020 - Online International Congress of Neurosciences: Brain and Behaviour in times of COVID-19</t>
   </si>
   <si>
-    <t>http://doi.org/10.17605/OSF.IO/5BWNX</t>
+    <t>\href{http://doi.org/10.17605/OSF.IO/5BWNX}{Book of Abstracts}</t>
+  </si>
+  <si>
+    <t>\href{https://www.youtube.com/@onlineinternationalcongres6942}{YouTube channel} (The entire congress is available)</t>
+  </si>
+  <si>
+    <t>\href{https://www.isep.es/congreso2020/\#comite}{Scientific Committee}</t>
+  </si>
+  <si>
+    <t>Universidad El Bosque \&amp; Universidad de los Andes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -511,7 +521,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -554,15 +564,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -596,6 +612,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -919,7 +936,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +945,7 @@
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -956,30 +973,35 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
